--- a/src/test/java/com/pack/testData/RegularSchedules.xlsx
+++ b/src/test/java/com/pack/testData/RegularSchedules.xlsx
@@ -307,6 +307,10 @@
   </si>
   <si>
     <t>Week Day3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salaried
+</t>
   </si>
 </sst>
 </file>
@@ -712,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="H1">
-      <selection activeCell="T8" sqref="T8" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="U13" sqref="U13" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1060,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1300,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1320,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>25</v>
@@ -1329,7 +1333,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>77</v>
@@ -1380,7 +1384,7 @@
         <v>75</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/pack/testData/RegularSchedules.xlsx
+++ b/src/test/java/com/pack/testData/RegularSchedules.xlsx
@@ -307,10 +307,6 @@
   </si>
   <si>
     <t>Week Day3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salaried
-</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
